--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
@@ -12,15 +12,15 @@
     <sheet name="HiddenDropdowns" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="person" sheetId="4" r:id="rId4"/>
     <sheet name="sample" sheetId="5" r:id="rId5"/>
-    <sheet name="file" sheetId="6" r:id="rId6"/>
-    <sheet name="imaging_protocol" sheetId="7" r:id="rId7"/>
+    <sheet name="imaging_protocol" sheetId="6" r:id="rId6"/>
+    <sheet name="file" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="253">
   <si>
     <t>key</t>
   </si>
@@ -43,10 +43,10 @@
     <t>version_tol_stx_fish</t>
   </si>
   <si>
-    <t>Spatial Transcriptomics Fish [Tree of Life (ToL)]</t>
-  </si>
-  <si>
-    <t>TBC tol_stx_fish</t>
+    <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation (ST-FISH) [Tree of Life (ToL)]</t>
+  </si>
+  <si>
+    <t>Spatial transcriptomics via Fluorescence In Situ Hybridisation (FISH), providing spatially resolved gene expression data within tissues, based on the Tree of Life (ToL) initiative’s goals to explore the origins and diversity of life through advanced genomic technologies.</t>
   </si>
   <si>
     <t>tol</t>
@@ -70,9 +70,6 @@
     <t>title (optional)</t>
   </si>
   <si>
-    <t>description (optional)</t>
-  </si>
-  <si>
     <t>workflow (optional)</t>
   </si>
   <si>
@@ -88,24 +85,12 @@
     <t>e.g. Study of single cells in the human body</t>
   </si>
   <si>
-    <t>A detailed description of the project which includes research goals and experimental approach. Project description should be fewer than 300 words, such as an abstract from a grant application or publication.</t>
-  </si>
-  <si>
-    <t>e.g. This project explores the intricate details of single cells in the human body, focusing on their structure, function, and behavior. By studying individual cells, it aims to uncover how they contribute to overall health, disease progression, and human biology. This research can provide deeper insights into cellular processes, paving the way for advancements in medical treatments and personalised medicine.</t>
-  </si>
-  <si>
     <t>The workflow or protocol followed during the study.</t>
   </si>
   <si>
     <t>e.g. spatial_transcriptomics</t>
   </si>
   <si>
-    <t>The sorting or visualisation technology used.</t>
-  </si>
-  <si>
-    <t>e.g. Vizgen</t>
-  </si>
-  <si>
     <t>FILL OUT INFORMATION BELOW THIS ROW</t>
   </si>
   <si>
@@ -133,12 +118,18 @@
     <t>Spatial Transcriptomics</t>
   </si>
   <si>
+    <t>orcid_id</t>
+  </si>
+  <si>
     <t>givenName</t>
   </si>
   <si>
     <t>familyName</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>affiliation</t>
   </si>
   <si>
@@ -148,25 +139,43 @@
     <t>funding</t>
   </si>
   <si>
+    <t>orcid_id (optional)</t>
+  </si>
+  <si>
+    <t>email (optional)</t>
+  </si>
+  <si>
     <t>funder (optional)</t>
   </si>
   <si>
     <t>funding (optional)</t>
   </si>
   <si>
-    <t>The first name of a Person.</t>
+    <t>A 16-digit number that uniquely identify researchers.</t>
+  </si>
+  <si>
+    <t>e.g. 0000-1234-5678-9012</t>
+  </si>
+  <si>
+    <t>A first name (or given name) is the personal name given to an individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Jane</t>
   </si>
   <si>
-    <t>The last name of a Person.</t>
+    <t>A last name (or surname) is the family name passed down from one generation to the next for the individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Doe</t>
   </si>
   <si>
-    <t>An organization that this person is affiliated with. For example, a school/university, a club, or a team.</t>
+    <t>A unique identifier used to send and receive electronic messages (emails) over the internet.</t>
+  </si>
+  <si>
+    <t>e.g. jane.doe@example.com</t>
+  </si>
+  <si>
+    <t>An organisation or institution that this person is associated with.</t>
   </si>
   <si>
     <t>e.g. University of Liverpool</t>
@@ -178,7 +187,7 @@
     <t>e.g. BBSRC</t>
   </si>
   <si>
-    <t>A Grant that directly or indirectly provide funding or sponsorship for this item.</t>
+    <t>A grant that directly or indirectly provides funding or sponsorship for the person to conduct the study.</t>
   </si>
   <si>
     <t>e.g. GRAK3489</t>
@@ -220,9 +229,6 @@
     <t>materialSourceID</t>
   </si>
   <si>
-    <t>accession_number</t>
-  </si>
-  <si>
     <t>infraspecific_epithet</t>
   </si>
   <si>
@@ -268,9 +274,6 @@
     <t>materialSourceID (optional)</t>
   </si>
   <si>
-    <t>accession_number (optional)</t>
-  </si>
-  <si>
     <t>infraspecific_epithet (optional)</t>
   </si>
   <si>
@@ -346,12 +349,6 @@
     <t>e.g. JIC GRU WM0013</t>
   </si>
   <si>
-    <t>A unique alphanumeric reference or identifier assigned to the sample in the study related to NCBI Taxonomy.</t>
-  </si>
-  <si>
-    <t>e.g. accession123</t>
-  </si>
-  <si>
     <t>The name of the lowest or terminal infraspecific epithet of the dwc:scientificName, excluding any rank designation.</t>
   </si>
   <si>
@@ -601,190 +598,187 @@
     <t>Whole Plant</t>
   </si>
   <si>
+    <t>imaging_protocol_id</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>target_probe_code</t>
+  </si>
+  <si>
+    <t>section_thickness_µm</t>
+  </si>
+  <si>
+    <t>section_thickness_method</t>
+  </si>
+  <si>
+    <t>section_thickness_temperature</t>
+  </si>
+  <si>
+    <t>is_pathological</t>
+  </si>
+  <si>
+    <t>photobleaching_duration_in_hours</t>
+  </si>
+  <si>
+    <t>clearing_with_proteinasek</t>
+  </si>
+  <si>
+    <t>clearing_without_proteinasek</t>
+  </si>
+  <si>
+    <t>instrument_user_guide</t>
+  </si>
+  <si>
+    <t>instrument_user_guide_revision</t>
+  </si>
+  <si>
+    <t>sample_preparation_guide</t>
+  </si>
+  <si>
+    <t>sample_preparation_guide_revision</t>
+  </si>
+  <si>
+    <t>deviations_from_official_protocol</t>
+  </si>
+  <si>
+    <t>section_thickness_µm (optional)</t>
+  </si>
+  <si>
+    <t>section_thickness_method (optional)</t>
+  </si>
+  <si>
+    <t>section_thickness_temperature (optional)</t>
+  </si>
+  <si>
+    <t>is_pathological (optional)</t>
+  </si>
+  <si>
+    <t>photobleaching_duration_in_hours (optional)</t>
+  </si>
+  <si>
+    <t>A unique alphanumeric identifier for the imaging protocol.</t>
+  </si>
+  <si>
+    <t>e.g. img123</t>
+  </si>
+  <si>
+    <t>The platform used to isolate the cells.</t>
+  </si>
+  <si>
+    <t>e.g. Illumina NovaSeq</t>
+  </si>
+  <si>
+    <t>The instrument used to isolate the cells.</t>
+  </si>
+  <si>
+    <t>e.g. Illumina NovaSeq 6000</t>
+  </si>
+  <si>
+    <t>The type of probes used to detect and quantify specific RNA molecules in their native spatial context within a tissue or cell.</t>
+  </si>
+  <si>
+    <t>e.g. Oligo-dT</t>
+  </si>
+  <si>
+    <t>The thickness of the tissue section in micrometres.</t>
+  </si>
+  <si>
+    <t>e.g. 10</t>
+  </si>
+  <si>
+    <t>The method used to measure tissue section thickness.</t>
+  </si>
+  <si>
+    <t>e.g. Microtome</t>
+  </si>
+  <si>
+    <t>The temperature at which the section was made in degree celsius.</t>
+  </si>
+  <si>
+    <t>e.g. 22</t>
+  </si>
+  <si>
+    <t>A quality inhering in a bearer by virtue of the bearer's being abnormal and having a destructive effect on living tissue.</t>
+  </si>
+  <si>
+    <t>e.g. No</t>
+  </si>
+  <si>
+    <t>The duration of photobleaching in hours</t>
+  </si>
+  <si>
+    <t>e.g. 2</t>
+  </si>
+  <si>
+    <t>The duration of clearing at 47°C with Proteinase K.</t>
+  </si>
+  <si>
+    <t>e.g. 24 hrs</t>
+  </si>
+  <si>
+    <t>The duration of tissue clearing at 37°C without Proteinase K.</t>
+  </si>
+  <si>
+    <t>e.g. 4.5 days</t>
+  </si>
+  <si>
+    <t>The user guide for the instrument used.</t>
+  </si>
+  <si>
+    <t>e.g. User Guide</t>
+  </si>
+  <si>
+    <t>The revision of the instrument user guide.</t>
+  </si>
+  <si>
+    <t>e.g. 1.2</t>
+  </si>
+  <si>
+    <t>The guide used for sample preparation.</t>
+  </si>
+  <si>
+    <t>e.g. preparation_guide_v1.0.pdf</t>
+  </si>
+  <si>
+    <t>The revision of the sample preparation guide.</t>
+  </si>
+  <si>
+    <t>e.g. 1.0</t>
+  </si>
+  <si>
+    <t>Any deviations from the official protocol. Separate individual deviations with '|'.</t>
+  </si>
+  <si>
+    <t>e.g. Temperature exceeded 25°C during storage | Sample handling delayed by 2 hours</t>
+  </si>
+  <si>
     <t>file_id</t>
   </si>
   <si>
-    <t>imaging_protocol_id</t>
-  </si>
-  <si>
     <t>file_name</t>
   </si>
   <si>
     <t>file_type</t>
   </si>
   <si>
-    <t>centroidX</t>
-  </si>
-  <si>
-    <t>centroidY</t>
-  </si>
-  <si>
-    <t>centroidX (optional)</t>
-  </si>
-  <si>
-    <t>centroidY (optional)</t>
-  </si>
-  <si>
     <t>A unique alphanumeric identifier for this file</t>
   </si>
   <si>
-    <t>A unique alphanumeric identifier for the imaging protocol.</t>
-  </si>
-  <si>
-    <t>e.g. img123</t>
-  </si>
-  <si>
     <t>A filename or file name is a name used to uniquely identify a data file related to the study.</t>
   </si>
   <si>
     <t>e.g. file001</t>
   </si>
   <si>
-    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, etc.</t>
+    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, archive etc.</t>
   </si>
   <si>
     <t>e.g. fastq</t>
-  </si>
-  <si>
-    <t>X Coordinate of the approximate center pixel for this sample</t>
-  </si>
-  <si>
-    <t>e.g. 450</t>
-  </si>
-  <si>
-    <t>Y Coordinate of the approximate center pixel for this sample</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>instrument</t>
-  </si>
-  <si>
-    <t>target_probes</t>
-  </si>
-  <si>
-    <t>section_thickness_µm</t>
-  </si>
-  <si>
-    <t>section_thickness_method</t>
-  </si>
-  <si>
-    <t>section_thickness_temperature</t>
-  </si>
-  <si>
-    <t>is_pathological</t>
-  </si>
-  <si>
-    <t>photobleaching_duration_in_hours</t>
-  </si>
-  <si>
-    <t>instrument_user_guide</t>
-  </si>
-  <si>
-    <t>instrument_user_guide_revision</t>
-  </si>
-  <si>
-    <t>sample_preparation_guide</t>
-  </si>
-  <si>
-    <t>sample_preparation_guide_revision</t>
-  </si>
-  <si>
-    <t>deviations_from_official_protocol</t>
-  </si>
-  <si>
-    <t>section_thickness_µm (optional)</t>
-  </si>
-  <si>
-    <t>section_thickness_method (optional)</t>
-  </si>
-  <si>
-    <t>section_thickness_temperature (optional)</t>
-  </si>
-  <si>
-    <t>is_pathological (optional)</t>
-  </si>
-  <si>
-    <t>photobleaching_duration_in_hours (optional)</t>
-  </si>
-  <si>
-    <t>The platform used to isolate the cells.</t>
-  </si>
-  <si>
-    <t>e.g. Illumina NovaSeq</t>
-  </si>
-  <si>
-    <t>The instrument used to isolate the cells.</t>
-  </si>
-  <si>
-    <t>e.g. Illumina NovaSeq 6000</t>
-  </si>
-  <si>
-    <t>The type of probes used to detect and quantify specific RNA molecules in their native spatial context within a tissue or cell.</t>
-  </si>
-  <si>
-    <t>e.g. Oligo-dT</t>
-  </si>
-  <si>
-    <t>The thickness of the tissue section in micrometres.</t>
-  </si>
-  <si>
-    <t>e.g. 10</t>
-  </si>
-  <si>
-    <t>The method used to measure tissue section thickness.</t>
-  </si>
-  <si>
-    <t>e.g. Microtome</t>
-  </si>
-  <si>
-    <t>The temperature at which the section was made in degree celsius.</t>
-  </si>
-  <si>
-    <t>e.g. 22</t>
-  </si>
-  <si>
-    <t>A quality inhering in a bearer by virtue of the bearer's being abnormal and having a destructive effect on living tissue.</t>
-  </si>
-  <si>
-    <t>e.g. No</t>
-  </si>
-  <si>
-    <t>The duration of photobleaching in hours</t>
-  </si>
-  <si>
-    <t>e.g. 2</t>
-  </si>
-  <si>
-    <t>The user guide for the instrument used.</t>
-  </si>
-  <si>
-    <t>e.g. User Guide</t>
-  </si>
-  <si>
-    <t>The revision of the instrument user guide.</t>
-  </si>
-  <si>
-    <t>e.g. 1.2</t>
-  </si>
-  <si>
-    <t>The guide used for sample preparation.</t>
-  </si>
-  <si>
-    <t>e.g. preparation_guide_v1.0.pdf</t>
-  </si>
-  <si>
-    <t>The revision of the sample preparation guide.</t>
-  </si>
-  <si>
-    <t>e.g. 1.0</t>
-  </si>
-  <si>
-    <t>Any deviations from the official protocol. Separate individual deviations with '|'.</t>
-  </si>
-  <si>
-    <t>e.g. Temperature exceeded 25°C during storage | Sample handling delayed by 2 hours</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1170,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="234.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1224,14 +1218,14 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E209" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="979F" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1239,12 +1233,10 @@
   <cols>
     <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="116.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1254,72 +1246,49 @@
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FEA4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BBD4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:E4">
+  <conditionalFormatting sqref="A1:C4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
-      <formula1>HiddenDropdowns!$D$5:$D$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
-      <formula1>"10X,10X 3',Mas Seq,Smartseq,Vizgen"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="C5:C1005">
+      <formula1>HiddenDropdowns!$C$5:$C$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1328,638 +1297,638 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:G79"/>
+  <dimension ref="C5:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:7">
-      <c r="D5" t="s">
+    <row r="5" spans="3:7">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="4:7">
-      <c r="D6" t="s">
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7">
-      <c r="D7" t="s">
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7">
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7">
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7">
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7">
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>124</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
+    <row r="13" spans="3:7">
+      <c r="F13" t="s">
         <v>125</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
-      <c r="F13" t="s">
+    <row r="14" spans="3:7">
+      <c r="F14" t="s">
         <v>126</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
-      <c r="F14" t="s">
+    <row r="15" spans="3:7">
+      <c r="F15" t="s">
         <v>127</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
-      <c r="F15" t="s">
+    <row r="16" spans="3:7">
+      <c r="F16" t="s">
         <v>128</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7">
-      <c r="F16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="6:7">
       <c r="F61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="6:7">
       <c r="F68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="6:7">
       <c r="F69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="6:7">
       <c r="F71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="6:7">
       <c r="F76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1969,85 +1938,118 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B8E9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CF42" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:E4">
+  <conditionalFormatting sqref="A1:H4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -2058,7 +2060,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2074,184 +2076,174 @@
     <col min="11" max="11" width="57" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="146" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="109.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="97.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="102.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="185.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="96.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="208.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="102.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="185.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="96.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="208.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2269,14 +2261,13 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9D29" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D24A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A4:Q4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:R4">
+  <conditionalFormatting sqref="A1:Q4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -2298,118 +2289,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="88.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.28515625" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="A6FA" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A4:G4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A1:G4">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
-      <formula>NOT(ISERROR(A1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2425,157 +2305,177 @@
     <col min="8" max="8" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="104.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="76.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="76.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2591,13 +2491,15 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D598" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="96E8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A4:Q4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:O4">
+  <conditionalFormatting sqref="A1:Q4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -2609,4 +2511,93 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="D088" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:E4">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
@@ -1218,7 +1218,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="979F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B4EE" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1277,7 +1277,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BBD4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A405" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2045,7 +2045,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF42" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B599" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2263,7 +2263,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D24A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D463" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2495,7 +2495,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="96E8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D078" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2589,7 +2589,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D088" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B172" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
@@ -1218,7 +1218,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B4EE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AAB0" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1277,7 +1277,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A405" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FD20" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2045,7 +2045,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B599" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E24D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2263,7 +2263,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D463" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9ABB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2495,7 +2495,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D078" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A845" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2589,7 +2589,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B172" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8025" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="254">
   <si>
     <t>key</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation (ST-FISH) [Tree of Life (ToL)]</t>
   </si>
   <si>
-    <t>Spatial transcriptomics via Fluorescence In Situ Hybridisation (FISH), providing spatially resolved gene expression data within tissues, based on the Tree of Life (ToL) initiative’s goals to explore the origins and diversity of life through advanced genomic technologies.</t>
+    <t>Spatial transcriptomics via Fluorescence In Situ Hybridisation (FISH), with metadata based on the Tree of Life (ToL) initiative’s goals to explore the origins and diversity of life through advanced genomic technologies.</t>
   </si>
   <si>
     <t>tol</t>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>Holdfast Fungi</t>
+  </si>
+  <si>
+    <t>Inflorescence</t>
   </si>
   <si>
     <t>Intestine</t>
@@ -1171,7 +1174,7 @@
   <cols>
     <col min="1" max="1" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="234.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="190.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1218,7 +1221,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="AAB0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D378" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1277,7 +1280,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FD20" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="82F5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -1297,7 +1300,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:G79"/>
+  <dimension ref="C5:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1929,6 +1932,14 @@
       </c>
       <c r="G79" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7">
+      <c r="F80" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2056,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E24D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B9BB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2263,7 +2274,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9ABB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9EA6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2274,10 +2285,10 @@
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>HiddenDropdowns!$F$5:$F$79</formula1>
+      <formula1>HiddenDropdowns!$F$5:$F$80</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="G5:G1005">
-      <formula1>HiddenDropdowns!$G$5:$G$79</formula1>
+      <formula1>HiddenDropdowns!$G$5:$G$80</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="H5:H1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
@@ -2319,52 +2330,52 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2372,52 +2383,52 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2425,52 +2436,52 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2495,7 +2506,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A845" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ACD2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2533,16 +2544,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2550,16 +2561,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2567,16 +2578,16 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2589,7 +2600,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8025" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9784" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
@@ -1221,7 +1221,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D378" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EC19" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1280,7 +1280,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="82F5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8658" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2056,7 +2056,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B9BB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F23B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2274,7 +2274,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9EA6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FE98" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2506,7 +2506,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ACD2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F99C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2600,7 +2600,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9784" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9E94" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="284">
   <si>
     <t>key</t>
   </si>
@@ -88,7 +88,7 @@
     <t>The workflow or protocol followed during the study.</t>
   </si>
   <si>
-    <t>e.g. spatial_transcriptomics</t>
+    <t>e.g. Laser microdissection</t>
   </si>
   <si>
     <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -388,6 +388,9 @@
     <t>Bodywall</t>
   </si>
   <si>
+    <t>Bone Marrow Hematopoietic Niches</t>
+  </si>
+  <si>
     <t>Bract</t>
   </si>
   <si>
@@ -403,6 +406,18 @@
     <t>Cephalothorax</t>
   </si>
   <si>
+    <t>Cortex Development In Roots</t>
+  </si>
+  <si>
+    <t>Developing Brain</t>
+  </si>
+  <si>
+    <t>Developing Embryo</t>
+  </si>
+  <si>
+    <t>Developing Seed Coat</t>
+  </si>
+  <si>
     <t>Dna Extract</t>
   </si>
   <si>
@@ -412,6 +427,9 @@
     <t>Eggshell</t>
   </si>
   <si>
+    <t>Embryonic Stem Cells</t>
+  </si>
+  <si>
     <t>Endocrine Tissue</t>
   </si>
   <si>
@@ -424,12 +442,30 @@
     <t>Fat Body</t>
   </si>
   <si>
+    <t>Fetal Heart</t>
+  </si>
+  <si>
+    <t>Fetal Kidney</t>
+  </si>
+  <si>
+    <t>Fetal Liver</t>
+  </si>
+  <si>
+    <t>Fetal Lung</t>
+  </si>
+  <si>
     <t>Fin</t>
   </si>
   <si>
+    <t>Floral Meristem</t>
+  </si>
+  <si>
     <t>Flower</t>
   </si>
   <si>
+    <t>Gastrulation-Stage Embryo</t>
+  </si>
+  <si>
     <t>Gill Animal</t>
   </si>
   <si>
@@ -439,6 +475,9 @@
     <t>Gonad</t>
   </si>
   <si>
+    <t>Gut</t>
+  </si>
+  <si>
     <t>Hair</t>
   </si>
   <si>
@@ -454,6 +493,9 @@
     <t>Holdfast Fungi</t>
   </si>
   <si>
+    <t>Hypocotyl</t>
+  </si>
+  <si>
     <t>Inflorescence</t>
   </si>
   <si>
@@ -466,9 +508,15 @@
     <t>Leaf</t>
   </si>
   <si>
+    <t>Leaf Primordia</t>
+  </si>
+  <si>
     <t>Leg</t>
   </si>
   <si>
+    <t>Limb Bud</t>
+  </si>
+  <si>
     <t>Liver</t>
   </si>
   <si>
@@ -496,6 +544,15 @@
     <t>Mycorrhiza</t>
   </si>
   <si>
+    <t>Neonatal Retina</t>
+  </si>
+  <si>
+    <t>Neural Crest Cells</t>
+  </si>
+  <si>
+    <t>Nodules</t>
+  </si>
+  <si>
     <t>Not Applicable</t>
   </si>
   <si>
@@ -505,6 +562,9 @@
     <t>Not Provided</t>
   </si>
   <si>
+    <t>Olfactory Epithelium</t>
+  </si>
+  <si>
     <t>Other Fungal Tissue</t>
   </si>
   <si>
@@ -523,18 +583,36 @@
     <t>Oviduct</t>
   </si>
   <si>
+    <t>Ovule Primordium</t>
+  </si>
+  <si>
     <t>Pancreas</t>
   </si>
   <si>
     <t>Petiole</t>
   </si>
   <si>
+    <t>Placental Trophoblast Cells</t>
+  </si>
+  <si>
+    <t>Pollen Mother Cells</t>
+  </si>
+  <si>
     <t>Posterior Body</t>
   </si>
   <si>
+    <t>Postnatal Thymus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhizome Meristem </t>
+  </si>
+  <si>
     <t>Root</t>
   </si>
   <si>
+    <t>Root Apical Meristem</t>
+  </si>
+  <si>
     <t>Scales</t>
   </si>
   <si>
@@ -550,9 +628,15 @@
     <t>Shoot</t>
   </si>
   <si>
+    <t>Shoot Apical Meristem</t>
+  </si>
+  <si>
     <t>Skin</t>
   </si>
   <si>
+    <t>Somitic Mesoderm</t>
+  </si>
+  <si>
     <t>Sperm Seminal Fluid</t>
   </si>
   <si>
@@ -592,9 +676,15 @@
     <t>Thorax</t>
   </si>
   <si>
+    <t>Trichome Precursor Cells</t>
+  </si>
+  <si>
     <t>Unicellular Organisms In Culture</t>
   </si>
   <si>
+    <t>Vascular Cambium</t>
+  </si>
+  <si>
     <t>Whole Organism</t>
   </si>
   <si>
@@ -616,7 +706,7 @@
     <t>section_thickness_µm</t>
   </si>
   <si>
-    <t>section_thickness_method</t>
+    <t>section_thickness_measurement_method</t>
   </si>
   <si>
     <t>section_thickness_temperature</t>
@@ -652,7 +742,7 @@
     <t>section_thickness_µm (optional)</t>
   </si>
   <si>
-    <t>section_thickness_method (optional)</t>
+    <t>section_thickness_measurement_method (optional)</t>
   </si>
   <si>
     <t>section_thickness_temperature (optional)</t>
@@ -1221,7 +1311,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="EC19" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C832" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1280,7 +1370,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8658" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8CCC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -1300,14 +1390,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:G80"/>
+  <dimension ref="C5:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:7">
@@ -1940,6 +2030,246 @@
       </c>
       <c r="G80" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7">
+      <c r="F81" t="s">
+        <v>193</v>
+      </c>
+      <c r="G81" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7">
+      <c r="F82" t="s">
+        <v>194</v>
+      </c>
+      <c r="G82" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7">
+      <c r="F83" t="s">
+        <v>195</v>
+      </c>
+      <c r="G83" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7">
+      <c r="F84" t="s">
+        <v>196</v>
+      </c>
+      <c r="G84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7">
+      <c r="F85" t="s">
+        <v>197</v>
+      </c>
+      <c r="G85" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7">
+      <c r="F86" t="s">
+        <v>198</v>
+      </c>
+      <c r="G86" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7">
+      <c r="F87" t="s">
+        <v>199</v>
+      </c>
+      <c r="G87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7">
+      <c r="F88" t="s">
+        <v>200</v>
+      </c>
+      <c r="G88" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7">
+      <c r="F89" t="s">
+        <v>201</v>
+      </c>
+      <c r="G89" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7">
+      <c r="F90" t="s">
+        <v>202</v>
+      </c>
+      <c r="G90" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7">
+      <c r="F91" t="s">
+        <v>203</v>
+      </c>
+      <c r="G91" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7">
+      <c r="F92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7">
+      <c r="F93" t="s">
+        <v>205</v>
+      </c>
+      <c r="G93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7">
+      <c r="F94" t="s">
+        <v>206</v>
+      </c>
+      <c r="G94" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7">
+      <c r="F95" t="s">
+        <v>207</v>
+      </c>
+      <c r="G95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7">
+      <c r="F96" t="s">
+        <v>208</v>
+      </c>
+      <c r="G96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7">
+      <c r="F97" t="s">
+        <v>209</v>
+      </c>
+      <c r="G97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7">
+      <c r="F98" t="s">
+        <v>210</v>
+      </c>
+      <c r="G98" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7">
+      <c r="F99" t="s">
+        <v>211</v>
+      </c>
+      <c r="G99" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7">
+      <c r="F100" t="s">
+        <v>212</v>
+      </c>
+      <c r="G100" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7">
+      <c r="F101" t="s">
+        <v>213</v>
+      </c>
+      <c r="G101" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7">
+      <c r="F102" t="s">
+        <v>214</v>
+      </c>
+      <c r="G102" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7">
+      <c r="F103" t="s">
+        <v>215</v>
+      </c>
+      <c r="G103" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7">
+      <c r="F104" t="s">
+        <v>216</v>
+      </c>
+      <c r="G104" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7">
+      <c r="F105" t="s">
+        <v>217</v>
+      </c>
+      <c r="G105" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7">
+      <c r="F106" t="s">
+        <v>218</v>
+      </c>
+      <c r="G106" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7">
+      <c r="F107" t="s">
+        <v>219</v>
+      </c>
+      <c r="G107" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7">
+      <c r="F108" t="s">
+        <v>220</v>
+      </c>
+      <c r="G108" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7">
+      <c r="F109" t="s">
+        <v>221</v>
+      </c>
+      <c r="G109" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7">
+      <c r="F110" t="s">
+        <v>222</v>
+      </c>
+      <c r="G110" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2386,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F23B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ABCD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2274,7 +2604,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FE98" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E7D6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2285,10 +2615,10 @@
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>HiddenDropdowns!$F$5:$F$80</formula1>
+      <formula1>HiddenDropdowns!$F$5:$F$110</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="G5:G1005">
-      <formula1>HiddenDropdowns!$G$5:$G$80</formula1>
+      <formula1>HiddenDropdowns!$G$5:$G$110</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="H5:H1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
@@ -2330,52 +2660,52 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2383,52 +2713,52 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2436,52 +2766,52 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2506,7 +2836,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F99C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CE36" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2544,16 +2874,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2561,16 +2891,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2578,16 +2908,16 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2600,7 +2930,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9E94" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A731" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
@@ -1311,7 +1311,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C832" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A1A6" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1370,7 +1370,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8CCC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="81E4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2386,7 +2386,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ABCD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AAFC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2604,7 +2604,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E7D6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A1AB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2836,7 +2836,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CE36" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D7BE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2930,7 +2930,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A731" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E152" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
@@ -1311,7 +1311,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="A1A6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C30B" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1370,7 +1370,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="81E4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EE0A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2386,7 +2386,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AAFC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C1D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2604,7 +2604,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A1AB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C0E6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2836,7 +2836,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D7BE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="95A3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2930,7 +2930,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E152" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9021" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/stx_fish_tol_v0.1.xlsx
@@ -1311,7 +1311,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C30B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D696" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1370,7 +1370,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EE0A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FBF3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2386,7 +2386,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9C1D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9F49" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2604,7 +2604,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C0E6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DDEA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2836,7 +2836,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="95A3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CDAE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2930,7 +2930,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9021" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E016" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
